--- a/medicine/Mort/Tombe_étrusque/Tombe_étrusque.xlsx
+++ b/medicine/Mort/Tombe_étrusque/Tombe_étrusque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tombe_%C3%A9trusque</t>
+          <t>Tombe_étrusque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tombe étrusque obéit aux nombreux rites funéraires en vigueur suivant les périodes de sa civilisation : de l'urne cinéraire simple enfouie dans le sol puis dans un puits, à la banquette de pierre recevant le corps du défunt  habillé des attributs de sa fonction, puis aux sarcophages, à bas-reliefs ou figurés, des tombes collectives rassemblant les membres d'une même famille (noble), décorées de fresques, rassemblant un mobilier funéraire riche. Plusieurs types s'en dégagent dont la dénomination est descriptive.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tombe_%C3%A9trusque</t>
+          <t>Tombe_étrusque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Typologie des tombes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Individuelle :
 Ce sont pour la plupart des tombes à fosse, creusées dans le sol puis fermées (et signalées) par un tas de pierre :
@@ -527,7 +541,7 @@
 Tombe  a volta  en tholos (à pseudo-coupole en pierres avec ou sans axe central omphalos  - Vetulonia)
 Tombe a camera (simulant l'intérieur d'une maison avec son toit à deux pentes et  la poutre maîtresse du columen - Monterozzi, Banditaccia, Tuscania).
 Regroupement en nécropoles (Sovana) taillées dans la colline de tuf, ou construites les unes à côté des autres (Monterozzi, Caere) les tombes collectives (familiales) constituent alors des ensembles (de véritables villes) où le rite funéraire  est célébré par famille notable, dont la puissance est exprimée par la richesse des décorations autant sur les sarcophages que les parois des tombes, et plus tard dans la juxtaposition des tombes a dado en plan hippodamien (Orvieto, Banditaccia).
-À la veille de la décadence étrusque[1] :
+À la veille de la décadence étrusque :
 Tombe a caditoia (à cheminée dans le toit du couloir d'entrée, et  qui donnait peut-être de la lumière lors de la visite, lorsqu'on retirait les dalles qui en obstruaient l'orifice - Viterbe, Sinalunga)
 Il existe également des cippes indiquant l'emplacement de tombes et un des plus longs textes étrusques connus est celui du Cippe de Pérouse : il  marque la délimitation contractuelle d'un terrain, comportant des tombes, entre deux familles.
 </t>
